--- a/results/lin_models_multi.xlsx
+++ b/results/lin_models_multi.xlsx
@@ -1,134 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26327"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/5119beb6994823d0/Utrecht/thesis/thesis_disclosed/results/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="11_DD2CBFC68F79A8D366075C52F37BD2721ACCD7BB" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E34B471F-4103-4149-95F5-B230136C44C8}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
-  <si>
-    <t>model</t>
-  </si>
-  <si>
-    <t>rmse_mean</t>
-  </si>
-  <si>
-    <t>rmse_sd</t>
-  </si>
-  <si>
-    <t>rmse_cilow</t>
-  </si>
-  <si>
-    <t>rmse_cihigh</t>
-  </si>
-  <si>
-    <t>r2_trans_mean</t>
-  </si>
-  <si>
-    <t>r2_trans_sd</t>
-  </si>
-  <si>
-    <t>r2_trans_cilow</t>
-  </si>
-  <si>
-    <t>r2_trans_cihigh</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>9</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>11</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>13</t>
-  </si>
-  <si>
-    <t>14</t>
-  </si>
-  <si>
-    <t>15</t>
-  </si>
-  <si>
-    <t>16</t>
-  </si>
-  <si>
-    <t>17</t>
-  </si>
-  <si>
-    <t>18</t>
-  </si>
-  <si>
-    <t>19</t>
-  </si>
-  <si>
-    <t>20</t>
-  </si>
-  <si>
-    <t>21</t>
-  </si>
-  <si>
-    <t>22</t>
-  </si>
-  <si>
-    <t>23</t>
-  </si>
-  <si>
-    <t>24</t>
-  </si>
-  <si>
-    <t>25</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -172,23 +59,15 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -230,7 +109,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -262,27 +141,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -314,24 +175,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -507,767 +350,1153 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I26"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:M26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L13" sqref="L13"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>9</v>
+    <row r="1" s="1" customFormat="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>model</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>rmse_mean</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>rmse_min</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>rmse_pct25</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>rmse_pct75</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>rmse_max</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>rmse_sd</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>rmse_cilow</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>rmse_cihigh</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>r2_trans_mean</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>r2_trans_sd</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>r2_trans_cilow</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>r2_trans_cihigh</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="B2">
-        <v>2.5045527180959719</v>
+        <v>2.817613697076137</v>
       </c>
       <c r="C2">
-        <v>5.5774722495655647E-2</v>
+        <v>2.707513232841463</v>
       </c>
       <c r="D2">
-        <v>2.4995939322275831</v>
+        <v>2.783145849340705</v>
       </c>
       <c r="E2">
-        <v>2.5095115039643612</v>
+        <v>2.852370984744872</v>
       </c>
       <c r="F2">
-        <v>6.4390512754800858E-2</v>
+        <v>2.953062326764117</v>
       </c>
       <c r="G2">
-        <v>3.9768369326401293E-3</v>
+        <v>0.05060743389379786</v>
       </c>
       <c r="H2">
-        <v>6.4038398594196688E-2</v>
+        <v>2.807694640032952</v>
       </c>
       <c r="I2">
-        <v>6.4742610882822793E-2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>10</v>
+        <v>2.827532754119321</v>
+      </c>
+      <c r="J2">
+        <v>0.05594983142566231</v>
+      </c>
+      <c r="K2">
+        <v>0.003741058449245745</v>
+      </c>
+      <c r="L2">
+        <v>0.05521884604754074</v>
+      </c>
+      <c r="M2">
+        <v>0.05668075682852049</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
       <c r="B3">
-        <v>2.4415176003851911</v>
+        <v>2.817074993553627</v>
       </c>
       <c r="C3">
-        <v>5.7615150356828293E-2</v>
+        <v>2.706532767014392</v>
       </c>
       <c r="D3">
-        <v>2.436395186850695</v>
+        <v>2.782505592874509</v>
       </c>
       <c r="E3">
-        <v>2.446640013919688</v>
+        <v>2.852019474221718</v>
       </c>
       <c r="F3">
-        <v>0.1109108815041413</v>
+        <v>2.952582451367771</v>
       </c>
       <c r="G3">
-        <v>9.5681899532634347E-3</v>
+        <v>0.05067887583347807</v>
       </c>
       <c r="H3">
-        <v>0.1100705582750586</v>
+        <v>2.807141933890265</v>
       </c>
       <c r="I3">
-        <v>0.11175104617439829</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>11</v>
+        <v>2.827008053216988</v>
+      </c>
+      <c r="J3">
+        <v>0.05631087069180284</v>
+      </c>
+      <c r="K3">
+        <v>0.00374711127894657</v>
+      </c>
+      <c r="L3">
+        <v>0.05557873213394129</v>
+      </c>
+      <c r="M3">
+        <v>0.05704294869436245</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
       <c r="B4">
-        <v>2.4299283683830248</v>
+        <v>2.806019197587639</v>
       </c>
       <c r="C4">
-        <v>5.7737749984107897E-2</v>
+        <v>2.697412577960828</v>
       </c>
       <c r="D4">
-        <v>2.4247950548337549</v>
+        <v>2.772001859510997</v>
       </c>
       <c r="E4">
-        <v>2.4350616819322961</v>
+        <v>2.840379947571631</v>
       </c>
       <c r="F4">
-        <v>0.11932441958639479</v>
+        <v>2.943416742090085</v>
       </c>
       <c r="G4">
-        <v>1.0815957174384289E-2</v>
+        <v>0.05082288777424761</v>
       </c>
       <c r="H4">
-        <v>0.11837634726295811</v>
+        <v>2.796057911583887</v>
       </c>
       <c r="I4">
-        <v>0.120272274354034</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>12</v>
+        <v>2.815980483591392</v>
+      </c>
+      <c r="J4">
+        <v>0.06370661247519761</v>
+      </c>
+      <c r="K4">
+        <v>0.003756253657217182</v>
+      </c>
+      <c r="L4">
+        <v>0.06297333704572136</v>
+      </c>
+      <c r="M4">
+        <v>0.06443981912276564</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
       </c>
       <c r="B5">
-        <v>2.586644539654209</v>
+        <v>2.898526485602222</v>
       </c>
       <c r="C5">
-        <v>5.4050949048982673E-2</v>
+        <v>2.784025668585314</v>
       </c>
       <c r="D5">
-        <v>2.5818390100105968</v>
+        <v>2.863783961333421</v>
       </c>
       <c r="E5">
-        <v>2.5914500692978208</v>
+        <v>2.932380423072283</v>
       </c>
       <c r="F5">
-        <v>2.001022510280641E-3</v>
+        <v>3.042571576606794</v>
       </c>
       <c r="G5">
-        <v>1.342102253355405E-3</v>
+        <v>0.05236525409798578</v>
       </c>
       <c r="H5">
-        <v>1.8817000592602109E-3</v>
+        <v>2.888262895799017</v>
       </c>
       <c r="I5">
-        <v>2.1203449043203548E-3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>13</v>
+        <v>2.908790075405427</v>
+      </c>
+      <c r="J5">
+        <v>0.0009613938267281408</v>
+      </c>
+      <c r="K5">
+        <v>0.0007204807279212811</v>
+      </c>
+      <c r="L5">
+        <v>0.0008201796919094848</v>
+      </c>
+      <c r="M5">
+        <v>0.001102607923203668</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
       </c>
       <c r="B6">
-        <v>2.5855682289635169</v>
+        <v>2.896170712589021</v>
       </c>
       <c r="C6">
-        <v>5.4022735557716833E-2</v>
+        <v>2.781228216862103</v>
       </c>
       <c r="D6">
-        <v>2.5807652077082142</v>
+        <v>2.862864787029485</v>
       </c>
       <c r="E6">
-        <v>2.590371250218821</v>
+        <v>2.929582515037422</v>
       </c>
       <c r="F6">
-        <v>2.8269850432086339E-3</v>
+        <v>3.033708712742473</v>
       </c>
       <c r="G6">
-        <v>2.01393672177023E-3</v>
+        <v>0.05199125690251909</v>
       </c>
       <c r="H6">
-        <v>2.647932254652363E-3</v>
+        <v>2.885980426236127</v>
       </c>
       <c r="I6">
-        <v>3.0060376504979138E-3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>14</v>
+        <v>2.906360998941914</v>
+      </c>
+      <c r="J6">
+        <v>0.002579315525286775</v>
+      </c>
+      <c r="K6">
+        <v>0.001210089936530778</v>
+      </c>
+      <c r="L6">
+        <v>0.002342139219224406</v>
+      </c>
+      <c r="M6">
+        <v>0.002816491541161189</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
       </c>
       <c r="B7">
-        <v>2.5850527128668439</v>
+        <v>2.89361809538625</v>
       </c>
       <c r="C7">
-        <v>5.4061405331462947E-2</v>
+        <v>2.777988047522714</v>
       </c>
       <c r="D7">
-        <v>2.580246253582287</v>
+        <v>2.861223348023774</v>
       </c>
       <c r="E7">
-        <v>2.5898591721514022</v>
+        <v>2.926132820382485</v>
       </c>
       <c r="F7">
-        <v>3.2214471343708878E-3</v>
+        <v>3.030222641704718</v>
       </c>
       <c r="G7">
-        <v>2.3595065159919869E-3</v>
+        <v>0.05168645297584618</v>
       </c>
       <c r="H7">
-        <v>3.01167118085664E-3</v>
+        <v>2.883487550602984</v>
       </c>
       <c r="I7">
-        <v>3.43122280435669E-3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>15</v>
+        <v>2.903748640169515</v>
+      </c>
+      <c r="J7">
+        <v>0.004332231748807593</v>
+      </c>
+      <c r="K7">
+        <v>0.001556859278807561</v>
+      </c>
+      <c r="L7">
+        <v>0.004027092416739008</v>
+      </c>
+      <c r="M7">
+        <v>0.004637370274114933</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
       </c>
       <c r="B8">
-        <v>2.5804392875889119</v>
+        <v>2.889978894155196</v>
       </c>
       <c r="C8">
-        <v>5.4407601710635092E-2</v>
+        <v>2.776076257061093</v>
       </c>
       <c r="D8">
-        <v>2.5756020488824949</v>
+        <v>2.853936551659497</v>
       </c>
       <c r="E8">
-        <v>2.5852765262953281</v>
+        <v>2.924088291997477</v>
       </c>
       <c r="F8">
-        <v>6.7918967599868126E-3</v>
+        <v>3.03776712337462</v>
       </c>
       <c r="G8">
-        <v>7.5109010689516009E-4</v>
+        <v>0.05301084764778227</v>
       </c>
       <c r="H8">
-        <v>6.7251223249948713E-3</v>
+        <v>2.879588768016231</v>
       </c>
       <c r="I8">
-        <v>6.8586711344082061E-3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>16</v>
+        <v>2.900369020294161</v>
+      </c>
+      <c r="J8">
+        <v>0.006854812320796666</v>
+      </c>
+      <c r="K8">
+        <v>0.0005453763781813816</v>
+      </c>
+      <c r="L8">
+        <v>0.006747923484934138</v>
+      </c>
+      <c r="M8">
+        <v>0.006961701000016553</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
       </c>
       <c r="B9">
-        <v>2.5557884883998478</v>
+        <v>2.844636957284678</v>
       </c>
       <c r="C9">
-        <v>5.4773763461332087E-2</v>
+        <v>2.727425589509355</v>
       </c>
       <c r="D9">
-        <v>2.5509186952021921</v>
+        <v>2.808339101261056</v>
       </c>
       <c r="E9">
-        <v>2.560658281597505</v>
+        <v>2.879536962914429</v>
       </c>
       <c r="F9">
-        <v>2.568783489632067E-2</v>
+        <v>2.991588174933444</v>
       </c>
       <c r="G9">
-        <v>1.405051027976842E-3</v>
+        <v>0.05288732002426744</v>
       </c>
       <c r="H9">
-        <v>2.5562997402714869E-2</v>
+        <v>2.834271042559922</v>
       </c>
       <c r="I9">
-        <v>2.5812671588743959E-2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>17</v>
+        <v>2.855002872009435</v>
+      </c>
+      <c r="J9">
+        <v>0.03778110625836804</v>
+      </c>
+      <c r="K9">
+        <v>0.00142872247263953</v>
+      </c>
+      <c r="L9">
+        <v>0.0375014732299189</v>
+      </c>
+      <c r="M9">
+        <v>0.0380607333699371</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
       </c>
       <c r="B10">
-        <v>2.5352612564734041</v>
+        <v>2.805964457854274</v>
       </c>
       <c r="C10">
-        <v>5.4961019304776523E-2</v>
+        <v>2.688115496714064</v>
       </c>
       <c r="D10">
-        <v>2.5303748148445462</v>
+        <v>2.773206451499971</v>
       </c>
       <c r="E10">
-        <v>2.5401476981022619</v>
+        <v>2.838331259445941</v>
       </c>
       <c r="F10">
-        <v>4.1277778661706593E-2</v>
+        <v>2.952116987572071</v>
       </c>
       <c r="G10">
-        <v>3.5785402905123779E-3</v>
+        <v>0.05261650007312296</v>
       </c>
       <c r="H10">
-        <v>4.0960156509025993E-2</v>
+        <v>2.795651623839941</v>
       </c>
       <c r="I10">
-        <v>4.159539247187051E-2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>18</v>
+        <v>2.816277291868606</v>
+      </c>
+      <c r="J10">
+        <v>0.06376788595073203</v>
+      </c>
+      <c r="K10">
+        <v>0.002780493187466669</v>
+      </c>
+      <c r="L10">
+        <v>0.06322510514042277</v>
+      </c>
+      <c r="M10">
+        <v>0.06431062903681069</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
       </c>
       <c r="B11">
-        <v>2.5037421071861932</v>
+        <v>2.81716646263097</v>
       </c>
       <c r="C11">
-        <v>5.5735367780070919E-2</v>
+        <v>2.706498200262494</v>
       </c>
       <c r="D11">
-        <v>2.4987868202434602</v>
+        <v>2.783088618629288</v>
       </c>
       <c r="E11">
-        <v>2.5086973941289248</v>
+        <v>2.85227751325874</v>
       </c>
       <c r="F11">
-        <v>6.4991809670436773E-2</v>
+        <v>2.95157995627281</v>
       </c>
       <c r="G11">
-        <v>4.2205609317626956E-3</v>
+        <v>0.05049863473213799</v>
       </c>
       <c r="H11">
-        <v>6.4618144220166485E-2</v>
+        <v>2.807268730223471</v>
       </c>
       <c r="I11">
-        <v>6.5365456895534454E-2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>19</v>
+        <v>2.827064195038469</v>
+      </c>
+      <c r="J11">
+        <v>0.05624725892918783</v>
+      </c>
+      <c r="K11">
+        <v>0.003799897763479434</v>
+      </c>
+      <c r="L11">
+        <v>0.05550480072905713</v>
+      </c>
+      <c r="M11">
+        <v>0.05698965492576892</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
       </c>
       <c r="B12">
-        <v>2.4404887829902151</v>
+        <v>2.802497108007784</v>
       </c>
       <c r="C12">
-        <v>5.7337012320796833E-2</v>
+        <v>2.69456650393736</v>
       </c>
       <c r="D12">
-        <v>2.4353910979868671</v>
+        <v>2.767952634544935</v>
       </c>
       <c r="E12">
-        <v>2.4455864679935631</v>
+        <v>2.836553231296997</v>
       </c>
       <c r="F12">
-        <v>0.1116563372421823</v>
+        <v>2.930057751209741</v>
       </c>
       <c r="G12">
-        <v>9.4715090642903954E-3</v>
+        <v>0.04926781764970648</v>
       </c>
       <c r="H12">
-        <v>0.1108246454900292</v>
+        <v>2.792840615748442</v>
       </c>
       <c r="I12">
-        <v>0.1124878726057921</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>20</v>
+        <v>2.812153600267127</v>
+      </c>
+      <c r="J12">
+        <v>0.06603149997731882</v>
+      </c>
+      <c r="K12">
+        <v>0.005537350557817686</v>
+      </c>
+      <c r="L12">
+        <v>0.06495082337066692</v>
+      </c>
+      <c r="M12">
+        <v>0.06711202169940428</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
       </c>
       <c r="B13">
-        <v>2.577860834287248</v>
+        <v>2.888578692412271</v>
       </c>
       <c r="C13">
-        <v>5.4319288764858607E-2</v>
+        <v>2.773594803927615</v>
       </c>
       <c r="D13">
-        <v>2.573031447255711</v>
+        <v>2.853571192543439</v>
       </c>
       <c r="E13">
-        <v>2.582690221318785</v>
+        <v>2.922410533473283</v>
       </c>
       <c r="F13">
-        <v>8.7713795195005061E-3</v>
+        <v>3.034424800010834</v>
       </c>
       <c r="G13">
-        <v>1.4455921863893481E-3</v>
+        <v>0.05280400650899245</v>
       </c>
       <c r="H13">
-        <v>8.6428653233895838E-3</v>
+        <v>2.878229107136508</v>
       </c>
       <c r="I13">
-        <v>8.8998934258553482E-3</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>21</v>
+        <v>2.898928277688034</v>
+      </c>
+      <c r="J13">
+        <v>0.007813691768629796</v>
+      </c>
+      <c r="K13">
+        <v>0.0007656194896090877</v>
+      </c>
+      <c r="L13">
+        <v>0.007663639306348969</v>
+      </c>
+      <c r="M13">
+        <v>0.007963743879027752</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
       </c>
       <c r="B14">
-        <v>2.4401813908785939</v>
+        <v>2.802235802121605</v>
       </c>
       <c r="C14">
-        <v>5.7342519338424658E-2</v>
+        <v>2.69392487885475</v>
       </c>
       <c r="D14">
-        <v>2.4350832162605971</v>
+        <v>2.767932909503584</v>
       </c>
       <c r="E14">
-        <v>2.4452795654965911</v>
+        <v>2.836469835025175</v>
       </c>
       <c r="F14">
-        <v>0.1118774674567736</v>
+        <v>2.929167794582833</v>
       </c>
       <c r="G14">
-        <v>9.4752037152533043E-3</v>
+        <v>0.04919716878347283</v>
       </c>
       <c r="H14">
-        <v>0.11104549271893401</v>
+        <v>2.792593157040045</v>
       </c>
       <c r="I14">
-        <v>0.1127092853819181</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>22</v>
+        <v>2.811878447203166</v>
+      </c>
+      <c r="J14">
+        <v>0.06620387405738618</v>
+      </c>
+      <c r="K14">
+        <v>0.005572329061865871</v>
+      </c>
+      <c r="L14">
+        <v>0.06511639506444129</v>
+      </c>
+      <c r="M14">
+        <v>0.06729119579693872</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
       </c>
       <c r="B15">
-        <v>2.438629577640961</v>
+        <v>2.815579025819544</v>
       </c>
       <c r="C15">
-        <v>5.7397620013612101E-2</v>
+        <v>2.704041591209835</v>
       </c>
       <c r="D15">
-        <v>2.433526504164893</v>
+        <v>2.781987915789392</v>
       </c>
       <c r="E15">
-        <v>2.443732651117029</v>
+        <v>2.850605247726082</v>
       </c>
       <c r="F15">
-        <v>0.1130063314137804</v>
+        <v>2.945152258091974</v>
       </c>
       <c r="G15">
-        <v>9.3926468614177541E-3</v>
+        <v>0.05035534703805417</v>
       </c>
       <c r="H15">
-        <v>0.11218181796540019</v>
+        <v>2.805709377800086</v>
       </c>
       <c r="I15">
-        <v>0.1138306892555173</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>23</v>
+        <v>2.825448673839003</v>
+      </c>
+      <c r="J15">
+        <v>0.05730678795332818</v>
+      </c>
+      <c r="K15">
+        <v>0.004002985635561458</v>
+      </c>
+      <c r="L15">
+        <v>0.0565247402206411</v>
+      </c>
+      <c r="M15">
+        <v>0.05808876536386661</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
       </c>
       <c r="B16">
-        <v>2.395779817858136</v>
+        <v>2.794232339264763</v>
       </c>
       <c r="C16">
-        <v>5.9198188905248167E-2</v>
+        <v>2.683813053899224</v>
       </c>
       <c r="D16">
-        <v>2.3905166604735268</v>
+        <v>2.759972894186046</v>
       </c>
       <c r="E16">
-        <v>2.401042975242746</v>
+        <v>2.828436782431307</v>
       </c>
       <c r="F16">
-        <v>0.14391403722280879</v>
+        <v>2.924308105941293</v>
       </c>
       <c r="G16">
-        <v>1.333799856779175E-2</v>
+        <v>0.04970408288754895</v>
       </c>
       <c r="H16">
-        <v>0.14275248417613981</v>
+        <v>2.784490339018804</v>
       </c>
       <c r="I16">
-        <v>0.14507519385250439</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>24</v>
+        <v>2.803974339510722</v>
+      </c>
+      <c r="J16">
+        <v>0.07154045834828314</v>
+      </c>
+      <c r="K16">
+        <v>0.004833718690770255</v>
+      </c>
+      <c r="L16">
+        <v>0.0705978274094938</v>
+      </c>
+      <c r="M16">
+        <v>0.07248296151537484</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
       </c>
       <c r="B17">
-        <v>2.5524694631973222</v>
+        <v>2.841322514813886</v>
       </c>
       <c r="C17">
-        <v>5.463749700162214E-2</v>
+        <v>2.722715163898309</v>
       </c>
       <c r="D17">
-        <v>2.547611785097053</v>
+        <v>2.806519448782677</v>
       </c>
       <c r="E17">
-        <v>2.5573271412975922</v>
+        <v>2.875645672556655</v>
       </c>
       <c r="F17">
-        <v>2.8208363598976448E-2</v>
+        <v>2.980138218989579</v>
       </c>
       <c r="G17">
-        <v>2.0856121174453522E-3</v>
+        <v>0.05234313744319932</v>
       </c>
       <c r="H17">
-        <v>2.8023083547079108E-2</v>
+        <v>2.831063259875019</v>
       </c>
       <c r="I17">
-        <v>2.8393641712638949E-2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>25</v>
+        <v>2.851581769752753</v>
+      </c>
+      <c r="J17">
+        <v>0.04001403670440411</v>
+      </c>
+      <c r="K17">
+        <v>0.001729180530407831</v>
+      </c>
+      <c r="L17">
+        <v>0.03967565505883135</v>
+      </c>
+      <c r="M17">
+        <v>0.04035240917214501</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
       </c>
       <c r="B18">
-        <v>2.3949013648086792</v>
+        <v>2.793270385389622</v>
       </c>
       <c r="C18">
-        <v>5.9103103197777902E-2</v>
+        <v>2.682021873977286</v>
       </c>
       <c r="D18">
-        <v>2.3896466612476188</v>
+        <v>2.759397336146484</v>
       </c>
       <c r="E18">
-        <v>2.4001560683697392</v>
+        <v>2.827747464046158</v>
       </c>
       <c r="F18">
-        <v>0.1445345591126237</v>
+        <v>2.918657607233894</v>
       </c>
       <c r="G18">
-        <v>1.3380819109318119E-2</v>
+        <v>0.04948496310355702</v>
       </c>
       <c r="H18">
-        <v>0.1433694880396979</v>
+        <v>2.783571332621325</v>
       </c>
       <c r="I18">
-        <v>0.14569922957184961</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>26</v>
+        <v>2.802969438157919</v>
+      </c>
+      <c r="J18">
+        <v>0.07217486049102044</v>
+      </c>
+      <c r="K18">
+        <v>0.005004614780850442</v>
+      </c>
+      <c r="L18">
+        <v>0.07119898880917688</v>
+      </c>
+      <c r="M18">
+        <v>0.073150594004654</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
       </c>
       <c r="B19">
-        <v>2.426775220150637</v>
+        <v>2.802738136634273</v>
       </c>
       <c r="C19">
-        <v>5.7453852271499212E-2</v>
+        <v>2.692366001744155</v>
       </c>
       <c r="D19">
-        <v>2.421667147210417</v>
+        <v>2.770087952253967</v>
       </c>
       <c r="E19">
-        <v>2.4318832930908578</v>
+        <v>2.837063255237238</v>
       </c>
       <c r="F19">
-        <v>0.1216002478384029</v>
+        <v>2.933106968204303</v>
       </c>
       <c r="G19">
-        <v>1.0425029901123709E-2</v>
+        <v>0.05026883172141468</v>
       </c>
       <c r="H19">
-        <v>0.1206869548800379</v>
+        <v>2.792885445616876</v>
       </c>
       <c r="I19">
-        <v>0.1225133349441125</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>27</v>
+        <v>2.812590827651671</v>
+      </c>
+      <c r="J19">
+        <v>0.06588531892087662</v>
+      </c>
+      <c r="K19">
+        <v>0.004112262964909379</v>
+      </c>
+      <c r="L19">
+        <v>0.06508276717189419</v>
+      </c>
+      <c r="M19">
+        <v>0.06668778543682743</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
       </c>
       <c r="B20">
-        <v>2.3904514832904189</v>
+        <v>2.758865264356064</v>
       </c>
       <c r="C20">
-        <v>5.9156522903224783E-2</v>
+        <v>2.648900955845762</v>
       </c>
       <c r="D20">
-        <v>2.3851920303219472</v>
+        <v>2.725047351631959</v>
       </c>
       <c r="E20">
-        <v>2.395710936258892</v>
+        <v>2.792366665751707</v>
       </c>
       <c r="F20">
-        <v>0.1477106487130441</v>
+        <v>2.89281780624091</v>
       </c>
       <c r="G20">
-        <v>1.3636115541898589E-2</v>
+        <v>0.04998038768860868</v>
       </c>
       <c r="H20">
-        <v>0.14652446331356681</v>
+        <v>2.749069108369097</v>
       </c>
       <c r="I20">
-        <v>0.14889640932483231</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>28</v>
+        <v>2.768661420343032</v>
+      </c>
+      <c r="J20">
+        <v>0.09490428440362285</v>
+      </c>
+      <c r="K20">
+        <v>0.004753338370321066</v>
+      </c>
+      <c r="L20">
+        <v>0.09398093300088887</v>
+      </c>
+      <c r="M20">
+        <v>0.09582747253786651</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
       </c>
       <c r="B21">
-        <v>2.5319598016589469</v>
+        <v>2.801300445490253</v>
       </c>
       <c r="C21">
-        <v>5.4800535810789822E-2</v>
+        <v>2.681614323251878</v>
       </c>
       <c r="D21">
-        <v>2.5270876282011621</v>
+        <v>2.768077462448808</v>
       </c>
       <c r="E21">
-        <v>2.5368319751167321</v>
+        <v>2.833458612006512</v>
       </c>
       <c r="F21">
-        <v>4.3762482166558703E-2</v>
+        <v>2.938943074094123</v>
       </c>
       <c r="G21">
-        <v>3.591368775423051E-3</v>
+        <v>0.05187078633639348</v>
       </c>
       <c r="H21">
-        <v>4.3443788581634439E-2</v>
+        <v>2.79113377136832</v>
       </c>
       <c r="I21">
-        <v>4.4081166845148789E-2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>29</v>
+        <v>2.811467119612186</v>
+      </c>
+      <c r="J21">
+        <v>0.06686628918031799</v>
+      </c>
+      <c r="K21">
+        <v>0.003109466801780962</v>
+      </c>
+      <c r="L21">
+        <v>0.06625953201700743</v>
+      </c>
+      <c r="M21">
+        <v>0.06747299689232154</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
       </c>
       <c r="B22">
-        <v>2.389381583825962</v>
+        <v>2.757013762567377</v>
       </c>
       <c r="C22">
-        <v>5.903282653768132E-2</v>
+        <v>2.646016900638093</v>
       </c>
       <c r="D22">
-        <v>2.3841331283804159</v>
+        <v>2.722871117242306</v>
       </c>
       <c r="E22">
-        <v>2.3946300392715072</v>
+        <v>2.790382206277731</v>
       </c>
       <c r="F22">
-        <v>0.1484635125935701</v>
+        <v>2.885700898994492</v>
       </c>
       <c r="G22">
-        <v>1.364739913427505E-2</v>
+        <v>0.04963370329681221</v>
       </c>
       <c r="H22">
-        <v>0.14727661488745089</v>
+        <v>2.747285556721201</v>
       </c>
       <c r="I22">
-        <v>0.14964998273742511</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
-        <v>30</v>
+        <v>2.766741968413552</v>
+      </c>
+      <c r="J22">
+        <v>0.09611173761432405</v>
+      </c>
+      <c r="K22">
+        <v>0.004963785718172527</v>
+      </c>
+      <c r="L22">
+        <v>0.0951477250072211</v>
+      </c>
+      <c r="M22">
+        <v>0.09707556995242408</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
       </c>
       <c r="B23">
-        <v>2.5036753716385389</v>
+        <v>2.817007835966161</v>
       </c>
       <c r="C23">
-        <v>5.5725415981482077E-2</v>
+        <v>2.706250880755921</v>
       </c>
       <c r="D23">
-        <v>2.498720969484399</v>
+        <v>2.783012334547315</v>
       </c>
       <c r="E23">
-        <v>2.5086297737926788</v>
+        <v>2.852164590942876</v>
       </c>
       <c r="F23">
-        <v>6.5038544606147622E-2</v>
+        <v>2.951175885136688</v>
       </c>
       <c r="G23">
-        <v>4.2214137008902246E-3</v>
+        <v>0.05047464965121894</v>
       </c>
       <c r="H23">
-        <v>6.4664805927904773E-2</v>
+        <v>2.807114804634522</v>
       </c>
       <c r="I23">
-        <v>6.5412265038852779E-2</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
-        <v>31</v>
+        <v>2.8269008672978</v>
+      </c>
+      <c r="J23">
+        <v>0.05635234697211863</v>
+      </c>
+      <c r="K23">
+        <v>0.003822080220593447</v>
+      </c>
+      <c r="L23">
+        <v>0.05560556314686023</v>
+      </c>
+      <c r="M23">
+        <v>0.05709906774862761</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
       </c>
       <c r="B24">
-        <v>2.4347308760571371</v>
+        <v>2.760199437697713</v>
       </c>
       <c r="C24">
-        <v>5.7542276397136452E-2</v>
+        <v>2.647850721000362</v>
       </c>
       <c r="D24">
-        <v>2.429614941557324</v>
+        <v>2.725275829754696</v>
       </c>
       <c r="E24">
-        <v>2.4398468105569502</v>
+        <v>2.793259769231043</v>
       </c>
       <c r="F24">
-        <v>0.1158425250376582</v>
+        <v>2.890120892638537</v>
       </c>
       <c r="G24">
-        <v>9.910489761608042E-3</v>
+        <v>0.04977962095036963</v>
       </c>
       <c r="H24">
-        <v>0.1149731162521872</v>
+        <v>2.750442631991441</v>
       </c>
       <c r="I24">
-        <v>0.1167117563531624</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>32</v>
+        <v>2.769956243403985</v>
+      </c>
+      <c r="J24">
+        <v>0.09402472686115082</v>
+      </c>
+      <c r="K24">
+        <v>0.00560269061739189</v>
+      </c>
+      <c r="L24">
+        <v>0.09293618431336811</v>
+      </c>
+      <c r="M24">
+        <v>0.09511304464339361</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
       </c>
       <c r="B25">
-        <v>2.577853578028741</v>
+        <v>2.888545360020837</v>
       </c>
       <c r="C25">
-        <v>5.4319094970619181E-2</v>
+        <v>2.77353324646332</v>
       </c>
       <c r="D25">
-        <v>2.573024208226947</v>
+        <v>2.853565148656327</v>
       </c>
       <c r="E25">
-        <v>2.5826829478305351</v>
+        <v>2.922371181999175</v>
       </c>
       <c r="F25">
-        <v>8.7738126201908281E-3</v>
+        <v>3.034318044333811</v>
       </c>
       <c r="G25">
-        <v>1.448217294494005E-3</v>
+        <v>0.05279649975825402</v>
       </c>
       <c r="H25">
-        <v>8.6450650549305293E-3</v>
+        <v>2.87819724606822</v>
       </c>
       <c r="I25">
-        <v>8.9025598945610546E-3</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
-        <v>33</v>
+        <v>2.898893473973455</v>
+      </c>
+      <c r="J25">
+        <v>0.007835580026652592</v>
+      </c>
+      <c r="K25">
+        <v>0.0007876577262285489</v>
+      </c>
+      <c r="L25">
+        <v>0.007681208373295207</v>
+      </c>
+      <c r="M25">
+        <v>0.007989951306534689</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
       </c>
       <c r="B26">
-        <v>2.4342992624532771</v>
+        <v>2.759521803480992</v>
       </c>
       <c r="C26">
-        <v>5.7531206713753322E-2</v>
+        <v>2.64657239150694</v>
       </c>
       <c r="D26">
-        <v>2.429184312130293</v>
+        <v>2.724853143422751</v>
       </c>
       <c r="E26">
-        <v>2.4394142127762608</v>
+        <v>2.793033750263485</v>
       </c>
       <c r="F26">
-        <v>0.1161446312574721</v>
+        <v>2.888340917088018</v>
       </c>
       <c r="G26">
-        <v>9.9236013707268891E-3</v>
+        <v>0.04965502133852405</v>
       </c>
       <c r="H26">
-        <v>0.1152741336597644</v>
+        <v>2.749789419298641</v>
       </c>
       <c r="I26">
-        <v>0.11701495046390829</v>
+        <v>2.769254187663343</v>
+      </c>
+      <c r="J26">
+        <v>0.09446451398898746</v>
+      </c>
+      <c r="K26">
+        <v>0.005679729853049842</v>
+      </c>
+      <c r="L26">
+        <v>0.0933610934231193</v>
+      </c>
+      <c r="M26">
+        <v>0.09556770250444707</v>
       </c>
     </row>
   </sheetData>
